--- a/example-output/xslx/ID_cafr2014-statement_of_activities.xlsx
+++ b/example-output/xslx/ID_cafr2014-statement_of_activities.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="340" yWindow="0" windowWidth="25360" windowHeight="18780" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="ID_cafr2014-statement_of_activi" sheetId="1" r:id="rId1"/>
@@ -818,7 +818,7 @@
   <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0"/>
@@ -873,9 +873,7 @@
         <v>64007</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="10">
-        <v>186031</v>
-      </c>
+      <c r="D3" s="10"/>
       <c r="E3" s="10">
         <v>143852</v>
       </c>
@@ -884,7 +882,7 @@
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="11">
-        <v>25084</v>
+        <v>186031</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="22" customHeight="1">
@@ -922,7 +920,7 @@
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="13">
-        <v>47852</v>
+        <v>112268</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="22" customHeight="1">
@@ -954,7 +952,7 @@
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="13">
-        <v>827</v>
+        <v>25084</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="22" customHeight="1">
@@ -974,7 +972,7 @@
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="13">
-        <v>112268</v>
+        <v>827</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="22" customHeight="1">
@@ -985,9 +983,7 @@
         <v>-1317</v>
       </c>
       <c r="C9" s="12"/>
-      <c r="D9" s="12">
-        <v>276408</v>
-      </c>
+      <c r="D9" s="12"/>
       <c r="E9" s="12">
         <v>114780</v>
       </c>
@@ -996,7 +992,7 @@
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="13">
-        <v>22911</v>
+        <v>47852</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="22" customHeight="1" thickBot="1">
@@ -1334,7 +1330,7 @@
         <v>-16023</v>
       </c>
       <c r="D33" s="10">
-        <v>2941720</v>
+        <v>22911</v>
       </c>
       <c r="E33" s="10">
         <v>1811107</v>
@@ -1346,7 +1342,7 @@
         <v>-2665648</v>
       </c>
       <c r="H33" s="11">
-        <v>17594</v>
+        <v>3246870</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="22" customHeight="1">
@@ -1358,7 +1354,7 @@
         <v>-16023</v>
       </c>
       <c r="D34" s="12">
-        <v>360935</v>
+        <v>17594</v>
       </c>
       <c r="E34" s="12">
         <v>1112176</v>
@@ -1368,7 +1364,7 @@
       </c>
       <c r="G34" s="12"/>
       <c r="H34" s="13">
-        <v>3246870</v>
+        <v>305150</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="22" customHeight="1">
@@ -1406,7 +1402,7 @@
       </c>
       <c r="G36" s="12"/>
       <c r="H36" s="13">
-        <v>305150</v>
+        <v>15315</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="22" customHeight="1">
@@ -1462,7 +1458,7 @@
       </c>
       <c r="G39" s="12"/>
       <c r="H39" s="13">
-        <v>17594</v>
+        <v>13427</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="22" customHeight="1">
@@ -1498,7 +1494,7 @@
         <v>-237395</v>
       </c>
       <c r="D42" s="12">
-        <v>394535</v>
+        <v>17594</v>
       </c>
       <c r="E42" s="12">
         <v>459380</v>
@@ -1508,7 +1504,7 @@
       </c>
       <c r="G42" s="12"/>
       <c r="H42" s="13">
-        <v>5317</v>
+        <v>276408</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="22" customHeight="1">
@@ -1530,7 +1526,7 @@
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
       <c r="D44" s="12">
-        <v>269064</v>
+        <v>5317</v>
       </c>
       <c r="E44" s="12">
         <v>698931</v>
@@ -1542,7 +1538,7 @@
         <v>-2665648</v>
       </c>
       <c r="H44" s="13">
-        <v>1781</v>
+        <v>2941720</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="22" customHeight="1">
@@ -1552,7 +1548,7 @@
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
       <c r="D45" s="12">
-        <v>13065</v>
+        <v>2300</v>
       </c>
       <c r="E45" s="12">
         <v>271894</v>
@@ -1564,7 +1560,7 @@
         <v>-116455</v>
       </c>
       <c r="H45" s="13">
-        <v>87</v>
+        <v>394535</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="22" customHeight="1">
@@ -1573,7 +1569,9 @@
       </c>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
+      <c r="D46" s="12">
+        <v>87</v>
+      </c>
       <c r="E46" s="12">
         <v>14539</v>
       </c>
@@ -1584,7 +1582,7 @@
         <v>-1472541</v>
       </c>
       <c r="H46" s="13">
-        <v>1124</v>
+        <v>269064</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="22" customHeight="1">
@@ -1606,7 +1604,7 @@
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
       <c r="D48" s="12">
-        <v>101314</v>
+        <v>25</v>
       </c>
       <c r="E48" s="12">
         <v>90314</v>
@@ -1618,7 +1616,7 @@
         <v>-322093</v>
       </c>
       <c r="H48" s="13">
-        <v>13427</v>
+        <v>101314</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="22" customHeight="1">
@@ -1644,7 +1642,7 @@
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
       <c r="D50" s="12">
-        <v>1802807</v>
+        <v>1781</v>
       </c>
       <c r="E50" s="12">
         <v>175271</v>
@@ -1656,7 +1654,7 @@
         <v>290693</v>
       </c>
       <c r="H50" s="13">
-        <v>2300</v>
+        <v>360935</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="22" customHeight="1">
@@ -1676,7 +1674,7 @@
         <v>-684788</v>
       </c>
       <c r="H51" s="13">
-        <v>25</v>
+        <v>1802807</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="22" customHeight="1">
@@ -1685,7 +1683,9 @@
       </c>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
+      <c r="D52" s="12">
+        <v>1124</v>
+      </c>
       <c r="E52" s="12">
         <v>41945</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>-308864</v>
       </c>
       <c r="H52" s="13">
-        <v>15315</v>
+        <v>13065</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="22" customHeight="1">
